--- a/web_app/grasp/upload/initial_dataset_tests.xlsx
+++ b/web_app/grasp/upload/initial_dataset_tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="P0" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t xml:space="preserve">Depth</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sulfate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.a.</t>
   </si>
 </sst>
 </file>
@@ -3180,7 +3177,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -3910,7 +3907,7 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -4654,7 +4651,7 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -5382,10 +5379,10 @@
     <tabColor rgb="FF4472C4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5523,589 +5520,477 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>15.372</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>72.643</v>
+        <v>132.313</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>87.603</v>
+        <v>172.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>4.932</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>37.943</v>
+        <v>57.398</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>80.867</v>
+        <v>100.136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>4.625</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>47.51</v>
+        <v>113.975</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>94.454</v>
+        <v>63.993</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>15.372</v>
+        <v>13.549</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>132.313</v>
+        <v>267.881</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>172.3</v>
+        <v>60.612</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>4.932</v>
+        <v>18.282</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>57.398</v>
+        <v>291.25</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>100.136</v>
+        <v>118.908</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>4.625</v>
+        <v>5.852</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>113.975</v>
+        <v>181.675</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>63.993</v>
+        <v>66.374</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>13.549</v>
+        <v>23.342</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>267.881</v>
+        <v>399.659</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>60.612</v>
+        <v>57.689</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>18.282</v>
+        <v>16.542</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>291.25</v>
+        <v>56.256</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>118.908</v>
+        <v>45.785</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>5.852</v>
+        <v>11.279</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>181.675</v>
+        <v>264.111</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>66.374</v>
+        <v>84.931</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>8.306</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>162.958</v>
+        <v>161.436</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>35.637</v>
+        <v>106.658</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>8.699</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>161.13</v>
+        <v>246.111</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>26.626</v>
+        <v>101.207</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>9.058</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>107.219</v>
+        <v>134.935</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>58.059</v>
+        <v>103.898</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>23.342</v>
+        <v>7.948</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>399.659</v>
+        <v>124.485</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>57.689</v>
+        <v>68.326</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>16.542</v>
+        <v>6.783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>56.256</v>
+        <v>102.72</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>45.785</v>
+        <v>54.818</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>11.279</v>
+        <v>6.456</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>264.111</v>
+        <v>89.967</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>84.931</v>
+        <v>40.136</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>8.306</v>
+        <v>8.431</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>161.436</v>
+        <v>133.416</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>106.658</v>
+        <v>49.666</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>8.699</v>
+        <v>9.569</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>246.111</v>
+        <v>139.855</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>101.207</v>
+        <v>49.005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>9.058</v>
+        <v>5.903</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>134.935</v>
+        <v>96.308</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>103.898</v>
+        <v>59.102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>7.948</v>
+        <v>6.162</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>124.485</v>
+        <v>92.313</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>68.326</v>
+        <v>51.203</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>6.783</v>
+        <v>12.704</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>102.72</v>
+        <v>216.201</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>54.818</v>
+        <v>58.02</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>10.631</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>134.926</v>
+        <v>538.014</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>19.182</v>
+        <v>77.258</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>6.456</v>
+        <v>13.365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>89.967</v>
+        <v>322.655</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>40.136</v>
+        <v>71.935</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>8.431</v>
+        <v>10.931</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>133.416</v>
+        <v>107.222</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>49.666</v>
+        <v>72.967</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>9.569</v>
+        <v>10.612</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>139.855</v>
+        <v>123.528</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>49.005</v>
+        <v>52.906</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>5.903</v>
+        <v>9.533</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>96.308</v>
+        <v>463.952</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>59.102</v>
+        <v>66.154</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>6.162</v>
+        <v>7.727</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>92.313</v>
+        <v>119.386</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>51.203</v>
+        <v>36.496</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>12.704</v>
+        <v>7.36</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>216.201</v>
+        <v>167.26</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>58.02</v>
+        <v>43.503</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>10.631</v>
+        <v>0.953</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>538.014</v>
+        <v>656.365</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>77.258</v>
+        <v>88.435</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>13.365</v>
+        <v>5.039</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>322.655</v>
+        <v>510.058</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>71.935</v>
+        <v>89.786</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>10.931</v>
+        <v>6.498</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>107.222</v>
+        <v>185.255</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>72.967</v>
+        <v>104.528</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>10.612</v>
+        <v>9.194</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>123.528</v>
+        <v>198.52</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>52.906</v>
+        <v>70.495</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>9.533</v>
+        <v>7.571</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>463.952</v>
+        <v>321.218</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>66.154</v>
+        <v>67.719</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>7.727</v>
+        <v>6.801</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>119.386</v>
+        <v>125.888</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>36.496</v>
+        <v>65.308</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>7.36</v>
+        <v>7.827</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>167.26</v>
+        <v>202.537</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>43.503</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>656.365</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>88.435</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>5.039</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>510.058</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>89.786</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>6.498</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>185.255</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>104.528</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>9.194</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>198.52</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>70.495</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>7.571</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>321.218</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>67.719</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>6.801</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>125.888</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>65.308</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B51" s="1" t="n">
-        <v>7.827</v>
-      </c>
-      <c r="C51" s="1" t="n">
-        <v>202.537</v>
-      </c>
-      <c r="D51" s="1" t="n">
         <v>71.459</v>
       </c>
     </row>
@@ -6126,10 +6011,10 @@
     <tabColor rgb="FF4472C4"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6547,295 +6432,267 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>3007.459</v>
+        <v>131.281</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>144.778</v>
+        <v>85.877</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>59.631</v>
+        <v>64.252</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>131.281</v>
+        <v>46.756</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>85.877</v>
+        <v>414.37</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>64.252</v>
+        <v>67.532</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>46.756</v>
+        <v>25.618</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>414.37</v>
+        <v>325.239</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>67.532</v>
+        <v>52.893</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>25.618</v>
+        <v>17.254</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>325.239</v>
+        <v>270.683</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>52.893</v>
+        <v>65.231</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>17.254</v>
+        <v>12.01</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>270.683</v>
+        <v>424.643</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>65.231</v>
+        <v>52.159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1013.395</v>
+        <v>19.815</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>129.105</v>
+        <v>165.713</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>41.938</v>
+        <v>62.856</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>12.01</v>
+        <v>14.206</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>424.643</v>
+        <v>443.901</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>52.159</v>
+        <v>67.721</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>19.815</v>
+        <v>15.934</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>165.713</v>
+        <v>269.724</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>62.856</v>
+        <v>62.174</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>14.206</v>
+        <v>14.888</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>443.901</v>
+        <v>532.119</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>67.721</v>
+        <v>78.187</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>15.934</v>
+        <v>16.661</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>269.724</v>
+        <v>374.782</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>62.174</v>
+        <v>73.524</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>14.888</v>
+        <v>14.999</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>532.119</v>
+        <v>189.186</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>78.187</v>
+        <v>56.998</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>16.661</v>
+        <v>10.303</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>374.782</v>
+        <v>286.754</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>73.524</v>
+        <v>111.183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>14.999</v>
+        <v>5.924</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>189.186</v>
+        <v>705.476</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>56.998</v>
+        <v>83.342</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>10.303</v>
+        <v>5.938</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>286.754</v>
+        <v>174.279</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>111.183</v>
+        <v>134.718</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5.924</v>
+        <v>5.271</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>705.476</v>
+        <v>662.508</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>83.342</v>
+        <v>93.249</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1" t="n">
-        <v>5.938</v>
+        <v>7.727</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>174.279</v>
+        <v>191.249</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>134.718</v>
+        <v>88.956</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>5.271</v>
+        <v>7.013</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>662.508</v>
+        <v>269.466</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>93.249</v>
+        <v>91.679</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>7.727</v>
+        <v>8.377</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>191.249</v>
+        <v>454.666</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>88.956</v>
+        <v>98.114</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>7.013</v>
+        <v>10.475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>269.466</v>
+        <v>182.948</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>91.679</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>8.377</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>454.666</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>98.114</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>10.475</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>182.948</v>
-      </c>
-      <c r="D50" s="1" t="n">
         <v>91.69</v>
       </c>
     </row>
